--- a/qichacha/111.xlsx
+++ b/qichacha/111.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -345,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,27 +507,3765 @@
           <t>公司状态</t>
         </is>
       </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>网站</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>实缴资本</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>企业类型</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>所属行业</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>参保人数</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>人员规模</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>经营范围</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>公司抬头</t>
+          <t>中国用户体验联盟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="D2">
-        <f>B2&amp;A2&amp;B2&amp;C2</f>
-        <v/>
-      </c>
+          <t>吕瑶</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15810245213</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>liuburk@126.com</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>专职副秘书长</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市海淀区万寿路27</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>其他无其他</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>北京科讯通信服务有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>胡文强</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15810212965</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>010-81687856</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京海淀南路33号</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>参展：,第75届中国电子展,</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>万霖公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宋艳娟</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15810203032</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wsfyx@2008.sina.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>职员</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>北京市市辖区内蒙古满洲里</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>11、安防</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>义乌市亿诺日用品有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>黄国秀</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15810173623</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>bobyu327@gmail.com</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>对外合作</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>广东华域精密机械自动化有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>刘烨</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15810162008</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ye7104@163.com</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>02、工业控制与自动化</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>新港海岸</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>林杰</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15810075001</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>jlin@newcosemi.com</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等,05、消费电子、数码产品、智能硬件,06、照明与显示</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>七星</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>余海威</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15810067315</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112310113@qq.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>销售经理</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>广东新岸线计算机系统芯片有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>张鑫</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15801717128</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>xin.zhang@nufront.com</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市海淀区清化科技园科技大厦A座16层</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>参展：,2015展会,</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>卓越飞讯</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>刘帅</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15801619920</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>411108950@qq.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>销售</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等,02、工业控制与自动化,03、交通产品/广电,09、轨道交通,12、电力,14、医疗</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>deoworks</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>郭李蓉</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15801611482</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2390346700@qq.com</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>15、其他</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>电子四院</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>简立</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15801604611</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>lotoy_jdd@sina.com</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等,02、工业控制与自动化</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>链能基金</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>常智飞</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15801562791</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>liannjr@163.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ceo</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市西城区</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>其他金融其他</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>英特尔</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>康博</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15801530961</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>kangboer@163.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>研究员</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>北京四海星辰信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>谷迪克</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15801460277</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gudike@17sy.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>010-65062552</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>海外拓展经理</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市朝阳区向军南里2卷甲5号雨霖大厦18层</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>参展：,2010-2013展会,</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>华夏幸福</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李锴</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15801372670</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>likai8@cfldcn.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>高级经理</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>中植保控</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>郑毅</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15801322669</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>zhengyi@zhongzhi.com.cn</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>高级市场经理</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>北京市市辖区福华一路</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>其他保险经纪其他</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>中国中小企业协会</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>赵一清</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15801312531</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15801312531@163.com</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ibm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>程绮文</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15801309839</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>chengqw@live.com</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>03、交通产品/广电</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>国防科技创新研究院</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>邓宝松</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15801239065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dbs310@163.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>主任</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市丰台区丰体南路</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等,10、物联网与云计算,13、航空航天/军工</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>阿诺科技</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>岑旭军</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15801188828</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>anuodz@126.com</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>经理</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>中航301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>杨佳宁</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>15801118632</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>yjn00301@163.com</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>新云联广告传媒（浙江）有限公司</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>丁胜</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>15801117335</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32604798@qq.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>运营经理</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>北京市市辖区上海市虹桥路1438号8F</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>15、其他</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>华润</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>曾梦雅</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>15801112930</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>zengmengya2015@163.com</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>北京天限新空信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>侯一诺</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>15801047788</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>010-64184909</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市东城区东中街29号东环广场写字楼B座6层I-K</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>参展：,2010-2013展会,</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>北京蓝色基点信息咨询有限公司</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>席宾</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15800334031</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>xub@thinkonline.com.cn</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>北京市市辖区上地三街嘉华大厦E503</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>参展：,,数据返回-核查修改完善,第82届中国电子展,,</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>京东方科技集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>王旷坦</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15731130150</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>010-60965845</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市经济技术开发区西环中路12号</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>北京云纵信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>苏仁海</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15727676298</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1475059412@qq.com</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>参展：,第87届中国电子展,</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>北京来特威数码科技有限公司</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15718861393</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>010-62974424/010</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市海淀区上地三街九号嘉华大厦B-1012</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>|||ComRemark:北京来特威数码科技有限公司成立于2001年,是以光纤通信为主体,以光纤图像传输与控制系统、光纤计算机网络等领域设备的开发、生产、销售及工程技术服务为中心的高新技术企业。公司汇集了一大批国内外资深的数字视频光通信领域专家。|ComIntro:北京来特威数码科技有限公司成立于2001年,是以光纤通信为主体,以光纤图像传输与控制系统、光纤计算机网络等领域设备的开发、生产、销售及工程技术服务为中心的高新技术企业。公司汇集了一大批国内外资深的数字视频光通信领域专家。|参展：,2016展会,</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>点亮资本</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>朱斌斌</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15712896483</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>zhubineast168@163.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>合伙人</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>电子材料</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>爱普科技</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Luo Tong</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15712885408</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>tong.luo@apmemory.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>中国区商务总经理</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>一号互联</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>曹凯旋</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15711160340</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1183682404@qq.com</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0715-61919999</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>团队经理</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>北京市市辖区车公庙</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>必得客</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>袁力</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15701308001</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>234873483@qq.com</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>经理</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>海朋</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>陈庆</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15701180205</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>chqs200@qq.com</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>高级投资经理</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>北京市市辖区广州</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>其他投资汽车电子/汽车</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>创优视科技</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>费城</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15652776939</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15652776939@163.co?m</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23042952-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>经理</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>北京市市辖区宝安区石岩塘头路58号</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>刘璐</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15652762020</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>lu.liu@gigadevice.com</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>01、电子器材、电子元器件、电子设备、仪器仪表、电子工具、集成模块等</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>斯坦德机器人</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>徐旭</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15652600607</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>957558980@qq.com</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>机器人工程师</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>北京市市辖区宝安泰华梧桐岛</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>整机品牌制造商机器人安防</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>中幼星睿</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>王大炮</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15652348421</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>guanlz@zhongyouie.com</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>开发经理</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>43326</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>15652348421</v>
+      </c>
+      <c r="R38" t="n">
+        <v>15652348421</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>刘楠楠</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>电子材料,电子元器件,集成电路,电子制造设备,仪器仪表/测试测量,LED,平板显示,锂电,智能终端,数码产品,数字家庭</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>中展海华</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>赵女士</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15652258825</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>zhaolingna@ciec.com.cn</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>项目经理</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>15、其他</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>国信证券</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>张立超</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15652172958</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>82984573@qq.com</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>研究员</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>电子制造设备,平板显示,智能终端,数码产品,数字家庭</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>中城国合规划设计研究院</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>许华玲</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15652130223</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>hua841529095@163.com</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>规划师</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>15、其他</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>振江国际</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>张福升</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15650795422</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>业务经理</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>北京云汉通航科技有限公司/BeiJing Winhye Technology Co. Ltd</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>吾买尔</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>15650766191</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>whumy@winhye.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>010-57026847</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市海淀区学院路35号世宁大厦902</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>|||ComRemark:北京云汉通航科技有限公司是业内领先的通用航空光电吊舱及陀螺稳定生产平台产品和控制领域解决方案的供应商,专业提供无人机应用解决方案的无人机公司。|ComIntro:北京云汉通航科技有限公司是业内领先的通用航空光电吊舱及陀螺稳定生产平台产品和控制领域解决方案的供应商,专业提供无人机应用解决方案的无人机公司。|参展：,2016展会,</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>恒发</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>叶浩鸣</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15650765163</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>emapandy@163.com</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>胡先生</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15650709748</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>北大苏南研究院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>李成鹏</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15650708376</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>lichengpeng5@163.com</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>研发</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>李伟</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15650704366</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>liwei12611@126.com</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15650704366-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>研发工程师</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>北京市市辖区坂田</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>电信研究院</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>何伟</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>15646579966</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>hw3400@163.com</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>05、消费电子、数码产品、智能硬件</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>北京昕柏智能科技有限公司/Beijing NewBest Intelligent Technology Co Ltd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>张庆伟</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15614648751</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1027156008@qq.com</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市昌平区北清路珠江摩尔国际大厦7号楼</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>|||ComRemark:北京昕柏智能科技有限公司,已研发出工业级多旋翼无人机飞行控制系统(GPS/GNASS/北斗导航系统)。|ComIntro:北京昕柏智能科技有限公司,已研发出工业级多旋翼无人机飞行控制系统(GPS/GNASS/北斗导航系统)。|参展：,2016展会,</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>中国煤炭工业协会</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>刘富</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15611731967</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>707997830@qq.com</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>北京市市辖区</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>15、其他</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>北京快鱼电子有限公司</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>吴斌</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>15611299964</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wubin@kuaiyu.com</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>010-82002929</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>其它</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>展会名单</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>卞渊华</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>北京市市辖区北京市海淀区北四环中路229号海泰大厦1608</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>|||ComRemark:北京快鱼电子有限公司在音频处理及通讯领域具有10年的研究开发经验．主要从事CTI计算机语音通信系统、安防音频监控产品的设计与生产。|ComIntro:北京快鱼电子有限公司在音频处理及通讯领域具有10年的研究开发经验．主要从事CTI计算机语音通信系统、安防音频监控产品的设计与生产。|参展：,2016展会,</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>搜索页无采集到...</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>搜索页未能获得跳转网页地址...</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
